--- a/totals/Amphi.RAW.xlsx
+++ b/totals/Amphi.RAW.xlsx
@@ -1,85 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelleysinning/Library/CloudStorage/GoogleDrive-ksinning@vt.edu/My Drive/2023-2025 VT/Data/SI_VT/totals/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD04FAAF-2640-4145-ABCD-4CF257174CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="5720" yWindow="500" windowWidth="18960" windowHeight="11360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Amphi.RAW" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Amphi.RAW" sheetId="1" r:id="rId1"/>
+    <sheet name="Amphi.EAS" sheetId="2" r:id="rId2"/>
+    <sheet name="Amphi.FRY" sheetId="3" r:id="rId3"/>
+    <sheet name="Amphi.RIC" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t xml:space="preserve">Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Replicate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wt..N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wt..C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atomic.C.N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d15N.permil.AIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d13C.permil.VPDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amphinemura</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">FRY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIC</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="16">
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Sample_ID</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Replicate</t>
+  </si>
+  <si>
+    <t>Taxa</t>
+  </si>
+  <si>
+    <t>d15N.permil.AIR</t>
+  </si>
+  <si>
+    <t>d13C.permil.VPDB</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>EAS</t>
+  </si>
+  <si>
+    <t>Amphinemura</t>
+  </si>
+  <si>
+    <t>FRY</t>
+  </si>
+  <si>
+    <t>RIC</t>
+  </si>
+  <si>
+    <t>d15N</t>
+  </si>
+  <si>
+    <t>d13C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -115,6 +113,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,14 +403,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,297 +441,376 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2024</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>-0.51</v>
+      </c>
+      <c r="H2">
+        <v>-27.91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2024</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>-0.52</v>
+      </c>
+      <c r="H3">
+        <v>-27.84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2024</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="H4">
+        <v>-28.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2024</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>0.93</v>
+      </c>
+      <c r="H5">
+        <v>-26.63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>2024</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>0.81</v>
+      </c>
+      <c r="H6">
+        <v>-26.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2024</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>6.99</v>
+      </c>
+      <c r="H7">
+        <v>-24.63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2024</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="H2" t="n">
-        <v>41.68</v>
-      </c>
-      <c r="I2" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.51</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-27.91</v>
-      </c>
-      <c r="L2"/>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="H3" t="n">
-        <v>45.79</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9.04</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.52</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-27.84</v>
-      </c>
-      <c r="L3"/>
-      <c r="M3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="H4" t="n">
-        <v>44.54</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-1.12</v>
-      </c>
-      <c r="K4" t="n">
-        <v>-28.8</v>
-      </c>
-      <c r="L4"/>
-      <c r="M4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="H5" t="n">
-        <v>47.25</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="K5" t="n">
-        <v>-26.63</v>
-      </c>
-      <c r="L5"/>
-      <c r="M5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="H6" t="n">
-        <v>39.79</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-26.42</v>
-      </c>
-      <c r="L6"/>
-      <c r="M6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="H7" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="K7" t="n">
-        <v>-24.63</v>
-      </c>
-      <c r="L7"/>
-      <c r="M7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3</v>
-      </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="H8" t="n">
-        <v>47.84</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J8" t="n">
+        <v>11</v>
+      </c>
+      <c r="G8">
         <v>6.33</v>
       </c>
-      <c r="K8" t="n">
+      <c r="H8">
         <v>-21.62</v>
-      </c>
-      <c r="L8"/>
-      <c r="M8" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C31B24-4CE9-D64E-9361-C4D1C6EF2DBE}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-0.51</v>
+      </c>
+      <c r="B2">
+        <v>-27.91</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-0.52</v>
+      </c>
+      <c r="B3">
+        <v>-27.84</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="B4">
+        <v>-28.8</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8635E58E-2092-784A-8B07-2DCBF17D5BF4}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.93</v>
+      </c>
+      <c r="B2">
+        <v>-26.63</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.81</v>
+      </c>
+      <c r="B3">
+        <v>-26.42</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA38639E-0410-3A42-A05B-DCC76CB375A0}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>6.99</v>
+      </c>
+      <c r="B2">
+        <v>-24.63</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6.33</v>
+      </c>
+      <c r="B3">
+        <v>-21.62</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>